--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_13-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_13-10.xlsx
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
@@ -1246,17 +1252,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1264,7 +1270,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1272,17 +1278,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1290,7 +1296,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1298,17 +1304,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1330,11 +1336,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1350,13 +1356,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1368,7 +1374,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1376,13 +1382,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1408,11 +1414,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1434,11 +1440,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>12</v>
+        <v>11.67</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1454,17 +1460,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>133.65000000000001</v>
+        <v>12</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1472,7 +1478,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1480,17 +1486,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1498,7 +1504,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1506,13 +1512,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1538,45 +1544,71 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="K34" s="10">
-        <v>989.32000000000005</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="11">
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c t="s" r="B34" s="7">
         <v>59</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c t="s" r="F35" s="12">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c t="s" r="H34" s="8">
         <v>60</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c t="s" r="I35" s="14">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9">
+        <v>40</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c t="s" r="N34" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="26.25" customHeight="1">
+      <c r="K35" s="10">
+        <v>1012.3200000000001</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="11">
         <v>61</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c t="s" r="F36" s="12">
+        <v>62</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c t="s" r="I36" s="14">
+        <v>63</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="104">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1674,10 +1706,13 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:N36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
